--- a/biology/Zoologie/Bolostromus/Bolostromus.xlsx
+++ b/biology/Zoologie/Bolostromus/Bolostromus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bolostromus est un genre d'araignées mygalomorphes de la famille des Cyrtaucheniidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolostromus est un genre d'araignées mygalomorphes de la famille des Cyrtaucheniidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le Nord de l'Amérique du Sud, en Amérique centrale et aux Antilles sauf Bolostromus suspectus, à l'appartenance générique discutée, d'Ouganda[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le Nord de l'Amérique du Sud, en Amérique centrale et aux Antilles sauf Bolostromus suspectus, à l'appartenance générique discutée, d'Ouganda.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est connue depuis le Néogène[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est connue depuis le Néogène.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 28/02/2024)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 28/02/2024) :
 Bolostromus albertinae García-Villafuerte, 2023
 Bolostromus busu Dupérré, 2023
 Bolostromus devriesi Dupérré, 2023
@@ -600,7 +618,7 @@
 Bolostromus urku Dupérré, 2023
 Bolostromus valdivia Dupérré, 2023
 Bolostromus venustus Ausserer, 1875
-Selon World Spider Catalog (version 23.5, 2023)[2] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Bolostromus destructus Wunderlich, 1988</t>
         </is>
       </c>
@@ -629,11 +647,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Ausserer en 1875 dans les Theraphosidae. Il est placé dans les Cyrtaucheniidae par Raven en 1985[3].
-Celidotopus[4] et Phaenothele[5] ont été placés en synonymie par Simon en 1903[6].
-Phaeoclita[4] a été placé en synonymie par Raven en 1985[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Ausserer en 1875 dans les Theraphosidae. Il est placé dans les Cyrtaucheniidae par Raven en 1985.
+Celidotopus et Phaenothele ont été placés en synonymie par Simon en 1903.
+Phaeoclita a été placé en synonymie par Raven en 1985.
 </t>
         </is>
       </c>
@@ -662,7 +682,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ausserer, 1875 : « Zweiter Beitrag zur Kenntniss der Arachniden-Familie der Territelariae Thorell (Mygalidae Autor). » Verhandlungen der kaiserlich-königlichen zoologisch-botanischen Gesellschaft in Wien, vol. 25, p. 125-206 (texte intégral).</t>
         </is>
